--- a/biology/Zoologie/Hemidactylus_angulatus/Hemidactylus_angulatus.xlsx
+++ b/biology/Zoologie/Hemidactylus_angulatus/Hemidactylus_angulatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemidactylus angulatus est une espèce de geckos de la famille des Gekkonidae[1]. C'est le gecko commun africain, celui le plus courant en zone habitée. Par contre, il est moins présent en forêt dense[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemidactylus angulatus est une espèce de geckos de la famille des Gekkonidae. C'est le gecko commun africain, celui le plus courant en zone habitée. Par contre, il est moins présent en forêt dense.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description brève</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">H. angulatus possède des tubercules clairs et d’autres sombres. La coloration est presque translucide chez les spécimens des maisons exposés à la lumière, brunâtre avec des dessins sombres en milieu naturel. Cette espèce ne dépasse pas 14 cm (adultes)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">H. angulatus possède des tubercules clairs et d’autres sombres. La coloration est presque translucide chez les spécimens des maisons exposés à la lumière, brunâtre avec des dessins sombres en milieu naturel. Cette espèce ne dépasse pas 14 cm (adultes).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Sénégal, en Gambie, en Guinée-Bissau, en Guinée, en Sierra Leone, au Liberia, en Côte d'Ivoire, au Burkina Faso, au Ghana, au Togo, au Bénin, au Nigeria, au Niger, au Cameroun, au Gabon, en Centrafrique, au Soudan du Sud, en Ouganda et en Tanzanie[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Sénégal, en Gambie, en Guinée-Bissau, en Guinée, en Sierra Leone, au Liberia, en Côte d'Ivoire, au Burkina Faso, au Ghana, au Togo, au Bénin, au Nigeria, au Niger, au Cameroun, au Gabon, en Centrafrique, au Soudan du Sud, en Ouganda et en Tanzanie.
 Elle a une répartition subsaharienne très large.
 Elle a été introduite au Venezuela, en Colombie, à Cuba, à Hispaniola et à Porto Rico.
 </t>
@@ -575,9 +591,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (3 octobre 2012)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (3 octobre 2012) :
 Hemidactylus angulatus angulatus Hallowell, 1854
 Hemidactylus angulatus leightoni Boulenger, 1911</t>
         </is>
@@ -607,7 +625,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hallowell, 1854 "1852" : Description of new species of Reptilia from western Africa. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 6, p. 62-65 (texte intégral).
 Boulenger, 1911 : Descriptions of new reptiles from the Andes of South America, preserved in the British Museum. Annals and Magazine of Natural History, ser. 8, vol. 7, n. 37, p. 19-25 (texte intégral).</t>
